--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,7 +547,7 @@
       <c r="H2" s="1" t="n">
         <v>46047.50809027778</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="1" t="n">
         <v>46047</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -555,10 +555,8 @@
           <t>12:11:39</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K2" t="n">
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1069,7 +1067,7 @@
       <c r="H14" s="1" t="n">
         <v>46047.98043981481</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="1" t="n">
         <v>46047</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1077,10 +1075,8 @@
           <t>23:31:50</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K14" t="n">
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1129,7 +1125,7 @@
       <c r="H15" s="1" t="n">
         <v>46044.08003472222</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="1" t="n">
         <v>46044</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1137,10 +1133,8 @@
           <t>01:55:15</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K15" t="n">
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1218,13 +1212,31 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Parece un anuncio de aguila jsjsjsjs</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2026-01-29T01:47:03.000Z</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>46051.07434027778</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>46051</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>01:47:03</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1233,30 +1245,30 @@
         <v>0</v>
       </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1304033688429042/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid021xRaL1Rsn98fnD8rPbz65FZwAbojspx1ZVXpLk9Dzrfi1n48bdnVsqUjTw4s41eYl?comment_id=1215428443462032', 'id': 'Y29tbWVudDoxMzA0MDM0MzY4NDI4OTc0XzEyMTU0Mjg0NDM0NjIwMzI=', 'feedbackId': 'ZmVlZGJhY2s6MTMwNDAzNDM2ODQyODk3NF8xMjE1NDI4NDQzNDYyMDMy', 'date': '2026-01-29T01:47:03.000Z', 'text': 'Parece un anuncio de aguila jsjsjsjs', 'profileUrl': 'https://www.fa</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7w2fgB6D/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1304033688429042/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7w2fgB6D/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1304033688429042/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1284,7 +1296,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1293,12 +1305,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7wPwgB0F/</t>
+          <t>https://www.instagram.com/p/DTv7w2fgB6D/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7wPwgB0F/</t>
+          <t>https://www.instagram.com/p/DTv7w2fgB6D/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1326,7 +1338,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1335,12 +1347,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7kFPAC5g/</t>
+          <t>https://www.instagram.com/p/DTv7wPwgB0F/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7kFPAC5g/</t>
+          <t>https://www.instagram.com/p/DTv7wPwgB0F/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1368,7 +1380,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1377,12 +1389,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7ljhgGtu/</t>
+          <t>https://www.instagram.com/p/DTv7kFPAC5g/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7ljhgGtu/</t>
+          <t>https://www.instagram.com/p/DTv7kFPAC5g/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1410,7 +1422,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1419,12 +1431,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7wFbgIVP/</t>
+          <t>https://www.instagram.com/p/DTv7ljhgGtu/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7wFbgIVP/</t>
+          <t>https://www.instagram.com/p/DTv7ljhgGtu/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1452,7 +1464,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1461,12 +1473,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7xkRgKdC/</t>
+          <t>https://www.instagram.com/p/DTv7wFbgIVP/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7xkRgKdC/</t>
+          <t>https://www.instagram.com/p/DTv7wFbgIVP/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1494,7 +1506,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1503,12 +1515,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7mDZgP4h/</t>
+          <t>https://www.instagram.com/p/DTv7xkRgKdC/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7mDZgP4h/</t>
+          <t>https://www.instagram.com/p/DTv7xkRgKdC/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1536,7 +1548,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1545,12 +1557,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7mbuAAcw/</t>
+          <t>https://www.instagram.com/p/DTv7mDZgP4h/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7mbuAAcw/</t>
+          <t>https://www.instagram.com/p/DTv7mDZgP4h/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1578,7 +1590,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1587,12 +1599,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7xFfgAnc/</t>
+          <t>https://www.instagram.com/p/DTv7mbuAAcw/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7xFfgAnc/</t>
+          <t>https://www.instagram.com/p/DTv7mbuAAcw/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1620,7 +1632,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1629,12 +1641,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7xLQgAc6/</t>
+          <t>https://www.instagram.com/p/DTv7xFfgAnc/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7xLQgAc6/</t>
+          <t>https://www.instagram.com/p/DTv7xFfgAnc/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1662,7 +1674,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1671,12 +1683,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7mV4gIn9/</t>
+          <t>https://www.instagram.com/p/DTv7xLQgAc6/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7mV4gIn9/</t>
+          <t>https://www.instagram.com/p/DTv7xLQgAc6/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1704,7 +1716,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1713,12 +1725,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7kViADcy/</t>
+          <t>https://www.instagram.com/p/DTv7mV4gIn9/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7kViADcy/</t>
+          <t>https://www.instagram.com/p/DTv7mV4gIn9/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1746,7 +1758,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1755,12 +1767,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7wzRgFXz/</t>
+          <t>https://www.instagram.com/p/DTv7kViADcy/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7wzRgFXz/</t>
+          <t>https://www.instagram.com/p/DTv7kViADcy/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1788,7 +1800,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1797,12 +1809,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7v7QAO57/</t>
+          <t>https://www.instagram.com/p/DTv7wzRgFXz/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7v7QAO57/</t>
+          <t>https://www.instagram.com/p/DTv7wzRgFXz/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1830,7 +1842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1839,12 +1851,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DT0eGykgOCW/</t>
+          <t>https://www.instagram.com/p/DTv7v7QAO57/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DT0eGykgOCW/</t>
+          <t>https://www.instagram.com/p/DTv7v7QAO57/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1869,6 +1881,48 @@
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DT0eGykgOCW/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DT0eGykgOCW/</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2271,13 +2325,17 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" s="1" t="n">
+        <v>46051.07434027778</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>46051.07434027778</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2677,10 +2735,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2700,7 +2758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2867,7 +2925,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1304033688429042/</t>
+          <t>https://www.instagram.com/p/DTv7w2fgB6D/</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2879,7 +2937,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7w2fgB6D/</t>
+          <t>https://www.instagram.com/p/DTv7wPwgB0F/</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2891,7 +2949,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7wPwgB0F/</t>
+          <t>https://www.instagram.com/p/DTv7kFPAC5g/</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2903,7 +2961,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7kFPAC5g/</t>
+          <t>https://www.instagram.com/p/DTv7ljhgGtu/</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2915,7 +2973,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7ljhgGtu/</t>
+          <t>https://www.instagram.com/p/DTv7wFbgIVP/</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2927,7 +2985,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7wFbgIVP/</t>
+          <t>https://www.instagram.com/p/DTv7xkRgKdC/</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2939,7 +2997,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7xkRgKdC/</t>
+          <t>https://www.instagram.com/p/DTv7mDZgP4h/</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2951,7 +3009,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7mDZgP4h/</t>
+          <t>https://www.instagram.com/p/DTv7mbuAAcw/</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2963,7 +3021,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7mbuAAcw/</t>
+          <t>https://www.instagram.com/p/DTv7xFfgAnc/</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2975,7 +3033,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7xFfgAnc/</t>
+          <t>https://www.instagram.com/p/DTv7xLQgAc6/</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2987,7 +3045,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7xLQgAc6/</t>
+          <t>https://www.instagram.com/p/DTv7mV4gIn9/</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2999,7 +3057,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7mV4gIn9/</t>
+          <t>https://www.instagram.com/p/DTv7kViADcy/</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3011,7 +3069,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7kViADcy/</t>
+          <t>https://www.instagram.com/p/DTv7wzRgFXz/</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3023,7 +3081,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7wzRgFXz/</t>
+          <t>https://www.instagram.com/p/DTv7v7QAO57/</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3035,22 +3093,10 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7v7QAO57/</t>
+          <t>https://www.instagram.com/p/DT0eGykgOCW/</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DT0eGykgOCW/</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
         <is>
           <t>FAILED_ALL_ATTEMPTS</t>
         </is>
@@ -3107,16 +3153,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -8,10 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Comentarios" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Resumen_Posts" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Stats_Plataforma" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="URLs_Fallidas" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Stats_Extraccion" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -55,10 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +567,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -583,12 +576,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481235250954/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481298584281/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481235250954/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481298584281/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -616,7 +609,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -625,12 +618,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478275251250/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481235250954/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478275251250/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481235250954/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -658,7 +651,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -667,12 +660,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478405251237/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302478275251250/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478405251237/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302478275251250/</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -700,7 +693,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -709,12 +702,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481211917623/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302478405251237/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481211917623/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302478405251237/</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -742,7 +735,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -751,12 +744,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481328584278/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481211917623/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481328584278/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481211917623/</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -784,7 +777,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -793,12 +786,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478291917915/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481328584278/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478291917915/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481328584278/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -826,7 +819,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -835,12 +828,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478391917905/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302478291917915/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478391917905/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302478291917915/</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -868,7 +861,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -877,12 +870,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481255250952/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302478391917905/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481255250952/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302478391917905/</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -910,7 +903,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -919,12 +912,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481341917610/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481255250952/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481341917610/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481255250952/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -952,7 +945,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -961,12 +954,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478318584579/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481341917610/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478318584579/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481341917610/</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -994,7 +987,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1003,12 +996,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478268584584/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302478318584579/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478268584584/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302478318584579/</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1036,7 +1029,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1045,36 +1038,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481325250945/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302478268584584/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481325250945/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302478268584584/</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Con todo respeto 🫡 esta clase de contenido no tiene para mí ni 5 de gracia😬🫠</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2026-01-25T23:31:50.000Z</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>46047.98043981481</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>46047</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>23:31:50</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -1085,12 +1062,12 @@
         <v>0</v>
       </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1302481325250945/', 'commentUrl': 'https://www.facebook.com/reel/1588952505626968/?comment_id=1951969655670300', 'id': 'Y29tbWVudDoxMzAyNDgyMDAxOTE3NTQ0XzE5NTE5Njk2NTU2NzAzMDA=', 'feedbackId': 'ZmVlZGJhY2s6MTMwMjQ4MjAwMTkxNzU0NF8xOTUxOTY5NjU1NjcwMzAw', 'date': '2026-01-25T23:31:50.000Z', 'text': 'Con todo respeto 🫡 esta clase de contenido no tiene para mí ni 5 de gracia😬🫠', 'profileUrl': 'https://www.facebook.com/anna.d.guerra', 'pr</t>
-        </is>
-      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1114,23 +1091,23 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Si que pecao y le pegan por qué ladra</t>
+          <t>Con todo respeto 🫡 esta clase de contenido no tiene para mí ni 5 de gracia😬🫠</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-01-22T01:55:15.000Z</t>
+          <t>2026-01-25T23:31:50.000Z</t>
         </is>
       </c>
       <c r="H15" s="1" t="n">
-        <v>46044.08003472222</v>
+        <v>46047.98043981481</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>46044</v>
+        <v>46047</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>01:55:15</t>
+          <t>23:31:50</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1146,13 +1123,13 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1302481325250945/', 'commentUrl': 'https://www.facebook.com/reel/1588952505626968/?comment_id=1802500533793451', 'id': 'Y29tbWVudDoxMzAyNDgyMDAxOTE3NTQ0XzE4MDI1MDA1MzM3OTM0NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTMwMjQ4MjAwMTkxNzU0NF8xODAyNTAwNTMzNzkzNDUx', 'date': '2026-01-22T01:55:15.000Z', 'text': 'Si que pecao y le pegan por qué ladra', 'profileUrl': 'https://www.facebook.com/soniapatricia.solanosaavedra', 'profilePicture': 'https://</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1302481325250945/', 'commentUrl': 'https://www.facebook.com/reel/1588952505626968/?comment_id=1951969655670300', 'id': 'Y29tbWVudDoxMzAyNDgyMDAxOTE3NTQ0XzE5NTE5Njk2NTU2NzAzMDA=', 'feedbackId': 'ZmVlZGJhY2s6MTMwMjQ4MjAwMTkxNzU0NF8xOTUxOTY5NjU1NjcwMzAw', 'date': '2026-01-25T23:31:50.000Z', 'text': 'Con todo respeto 🫡 esta clase de contenido no tiene para mí ni 5 de gracia😬🫠', 'profileUrl': 'https://www.facebook.com/anna.d.guerra', 'pr</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1161,20 +1138,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481208584290/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481325250945/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481208584290/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481325250945/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Si que pecao y le pegan por qué ladra</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2026-01-22T01:55:15.000Z</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>46044.08003472222</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>46044</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>01:55:15</t>
+        </is>
+      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -1185,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1302481325250945/', 'commentUrl': 'https://www.facebook.com/reel/1588952505626968/?comment_id=1802500533793451', 'id': 'Y29tbWVudDoxMzAyNDgyMDAxOTE3NTQ0XzE4MDI1MDA1MzM3OTM0NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTMwMjQ4MjAwMTkxNzU0NF8xODAyNTAwNTMzNzkzNDUx', 'date': '2026-01-22T01:55:15.000Z', 'text': 'Si que pecao y le pegan por qué ladra', 'profileUrl': 'https://www.facebook.com/soniapatricia.solanosaavedra', 'profilePicture': 'https://</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1203,40 +1196,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1304033688429042/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481325250945/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1304033688429042/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481325250945/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Parece un anuncio de aguila jsjsjsjs</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2026-01-29T01:47:03.000Z</t>
-        </is>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>46051.07434027778</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>46051</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>01:47:03</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1245,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1304033688429042/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid021xRaL1Rsn98fnD8rPbz65FZwAbojspx1ZVXpLk9Dzrfi1n48bdnVsqUjTw4s41eYl?comment_id=1215428443462032', 'id': 'Y29tbWVudDoxMzA0MDM0MzY4NDI4OTc0XzEyMTU0Mjg0NDM0NjIwMzI=', 'feedbackId': 'ZmVlZGJhY2s6MTMwNDAzNDM2ODQyODk3NF8xMjE1NDI4NDQzNDYyMDMy', 'date': '2026-01-29T01:47:03.000Z', 'text': 'Parece un anuncio de aguila jsjsjsjs', 'profileUrl': 'https://www.fa</t>
-        </is>
-      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1263,12 +1238,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1304033688429042/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481208584290/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1304033688429042/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1302481208584290/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1296,29 +1271,45 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7w2fgB6D/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1304033688429042/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7w2fgB6D/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1304033688429042/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Parece un anuncio de aguila jsjsjsjs</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2026-01-29T01:47:03.000Z</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>46051.07434027778</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>46051</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>01:47:03</t>
+        </is>
+      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -1329,30 +1320,30 @@
         <v>0</v>
       </c>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1304033688429042/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid021xRaL1Rsn98fnD8rPbz65FZwAbojspx1ZVXpLk9Dzrfi1n48bdnVsqUjTw4s41eYl?comment_id=1215428443462032', 'id': 'Y29tbWVudDoxMzA0MDM0MzY4NDI4OTc0XzEyMTU0Mjg0NDM0NjIwMzI=', 'feedbackId': 'ZmVlZGJhY2s6MTMwNDAzNDM2ODQyODk3NF8xMjE1NDI4NDQzNDYyMDMy', 'date': '2026-01-29T01:47:03.000Z', 'text': 'Parece un anuncio de aguila jsjsjsjs', 'profileUrl': 'https://www.fa</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7wPwgB0F/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1304033688429042/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7wPwgB0F/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1304033688429042/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1380,7 +1371,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1389,12 +1380,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7kFPAC5g/</t>
+          <t>https://www.instagram.com/p/DTv7w2fgB6D/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7kFPAC5g/</t>
+          <t>https://www.instagram.com/p/DTv7w2fgB6D/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1422,7 +1413,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1431,12 +1422,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7ljhgGtu/</t>
+          <t>https://www.instagram.com/p/DTv7wPwgB0F/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7ljhgGtu/</t>
+          <t>https://www.instagram.com/p/DTv7wPwgB0F/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1464,7 +1455,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1473,12 +1464,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7wFbgIVP/</t>
+          <t>https://www.instagram.com/p/DTv7kFPAC5g/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7wFbgIVP/</t>
+          <t>https://www.instagram.com/p/DTv7kFPAC5g/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1506,7 +1497,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1515,12 +1506,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7xkRgKdC/</t>
+          <t>https://www.instagram.com/p/DTv7ljhgGtu/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7xkRgKdC/</t>
+          <t>https://www.instagram.com/p/DTv7ljhgGtu/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1548,7 +1539,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1557,12 +1548,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7mDZgP4h/</t>
+          <t>https://www.instagram.com/p/DTv7wFbgIVP/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7mDZgP4h/</t>
+          <t>https://www.instagram.com/p/DTv7wFbgIVP/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1590,7 +1581,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1599,12 +1590,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7mbuAAcw/</t>
+          <t>https://www.instagram.com/p/DTv7xkRgKdC/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7mbuAAcw/</t>
+          <t>https://www.instagram.com/p/DTv7xkRgKdC/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1632,7 +1623,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1641,12 +1632,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7xFfgAnc/</t>
+          <t>https://www.instagram.com/p/DTv7mDZgP4h/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7xFfgAnc/</t>
+          <t>https://www.instagram.com/p/DTv7mDZgP4h/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1674,7 +1665,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1683,12 +1674,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7xLQgAc6/</t>
+          <t>https://www.instagram.com/p/DTv7mbuAAcw/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7xLQgAc6/</t>
+          <t>https://www.instagram.com/p/DTv7mbuAAcw/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1716,7 +1707,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1725,12 +1716,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7mV4gIn9/</t>
+          <t>https://www.instagram.com/p/DTv7xFfgAnc/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7mV4gIn9/</t>
+          <t>https://www.instagram.com/p/DTv7xFfgAnc/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1758,7 +1749,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1767,12 +1758,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7kViADcy/</t>
+          <t>https://www.instagram.com/p/DTv7xLQgAc6/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7kViADcy/</t>
+          <t>https://www.instagram.com/p/DTv7xLQgAc6/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1800,7 +1791,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1809,12 +1800,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7wzRgFXz/</t>
+          <t>https://www.instagram.com/p/DTv7mV4gIn9/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7wzRgFXz/</t>
+          <t>https://www.instagram.com/p/DTv7mV4gIn9/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1842,7 +1833,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1851,12 +1842,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7v7QAO57/</t>
+          <t>https://www.instagram.com/p/DTv7kViADcy/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTv7v7QAO57/</t>
+          <t>https://www.instagram.com/p/DTv7kViADcy/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1884,7 +1875,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1893,12 +1884,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DT0eGykgOCW/</t>
+          <t>https://www.instagram.com/p/DTv7wzRgFXz/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DT0eGykgOCW/</t>
+          <t>https://www.instagram.com/p/DTv7wzRgFXz/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1924,1246 +1915,1139 @@
       </c>
       <c r="P33" t="inlineStr"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>post_number</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>post_url</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Total_Comentarios</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Total_Likes</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Primera_Extraccion</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Ultima_Extraccion</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481298584281/</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>46047.50809027778</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>46047.50809027778</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481235250954/</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478275251250/</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478405251237/</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481211917623/</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481328584278/</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478291917915/</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478391917905/</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481255250952/</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481341917610/</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478318584579/</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478268584584/</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481325250945/</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>46044.08003472222</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>46047.98043981481</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481208584290/</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1304033688429042/</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>46051.07434027778</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>46051.07434027778</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="n">
+        <v>29</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7w2fgB6D/</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7v7QAO57/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7v7QAO57/</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>30</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7wPwgB0F/</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DT0eGykgOCW/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DT0eGykgOCW/</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>31</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341152268057009/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341152268057009/</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214207210990/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214207210990/</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214210544323/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214210544323/</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214310544313/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214310544313/</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214230544321/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214230544321/</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214317210979/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214317210979/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316945463804531/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316945463804531/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316944213804656/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316944213804656/</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316946010471143/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316946010471143/</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>40</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316945687137842/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316945687137842/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>41</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316945740471170/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316945740471170/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>43</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345668724272030/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345668724272030/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>44</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7kFPAC5g/</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3DFAP2f/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3DFAP2f/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>45</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7ljhgGtu/</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3g2gFfw/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3g2gFfw/</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>46</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7wFbgIVP/</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3eyAIz0/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3eyAIz0/</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>47</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7xkRgKdC/</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3pdAK6i/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3pdAK6i/</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>48</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7mDZgP4h/</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ5d1ALPT/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ5d1ALPT/</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>49</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7mbuAAcw/</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbI8DNANZb/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbI8DNANZb/</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>50</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7xFfgAnc/</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbIxHEAPZB/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbIxHEAPZB/</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>51</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7xLQgAc6/</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbJHe2AO5a/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbJHe2AO5a/</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7mV4gIn9/</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbI8uCgB2n/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbI8uCgB2n/</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>53</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7kViADcy/</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbJHyugNkG/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbJHyugNkG/</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7wzRgFXz/</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUivrpRgMcb/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUivrpRgMcb/</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>55</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7v7QAO57/</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DT0eGykgOCW/</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Total_Posts</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Total_Comentarios</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Promedio_Likes</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Total_Likes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481235250954/</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478275251250/</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478405251237/</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481211917623/</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481328584278/</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478291917915/</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478391917905/</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481255250952/</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481341917610/</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478318584579/</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302478268584584/</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1302481208584290/</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7w2fgB6D/</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7wPwgB0F/</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7kFPAC5g/</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7ljhgGtu/</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7wFbgIVP/</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7xkRgKdC/</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7mDZgP4h/</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7mbuAAcw/</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7xFfgAnc/</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7xLQgAc6/</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7mV4gIn9/</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7kViADcy/</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7wzRgFXz/</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DTv7v7QAO57/</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DT0eGykgOCW/</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>total_attempts</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>successful</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>no_comments</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>invalid_comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>36</v>
-      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUi6YciAMYK/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUi6YciAMYK/</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Comentarios" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Resumen_Posts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Stats_Plataforma" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="URLs_Fallidas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Stats_Extraccion" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +20,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -49,9 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2481,73 +2488,3178 @@
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>N0</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2026-02-16T03:47:22.000Z</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>46069.15789351852</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>46069</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>03:47:22</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=1670909634069880', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzE2NzA5MDk2MzQwNjk4ODA=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8xNjcwOTA5NjM0MDY5ODgw', 'date': '2026-02-16T03:47:22.000Z', 'text': 'N0', 'profileUrl': 'https://www.facebook.com/carmen.ortiz.678548', 'profile</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Yo apoyo</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2026-02-15T23:14:53.000Z</t>
+        </is>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>46068.96866898148</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>46068</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>23:14:53</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=1237682194437454', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzEyMzc2ODIxOTQ0Mzc0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8xMjM3NjgyMTk0NDM3NDU0', 'date': '2026-02-15T23:14:53.000Z', 'text': 'Yo apoyo', 'profileUrl': 'https://www.facebook.com/people/Compra-y-venta-de</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Ya aburre siempre lo mismo</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2026-02-15T22:03:40.000Z</t>
+        </is>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>46068.91921296297</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>46068</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>22:03:40</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=887891507394668', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5Xzg4Nzg5MTUwNzM5NDY2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV84ODc4OTE1MDczOTQ2Njg=', 'date': '2026-02-15T22:03:40.000Z', 'text': 'Ya aburre siempre lo mismo', 'profileUrl': 'https://www.facebook.com/people/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>42</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Cómo se llama el fuego</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2026-02-15T17:32:10.000Z</t>
+        </is>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>46068.7306712963</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>46068</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>17:32:10</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=785616567915768', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5Xzc4NTYxNjU2NzkxNTc2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV83ODU2MTY1Njc5MTU3Njg=', 'date': '2026-02-15T17:32:10.000Z', 'text': 'Cómo se llama el fuego', 'profileUrl': 'https://www.facebook.com/people/Elki</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>42</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Yogo Yogo no es yogur, es lactosuero con azúcar y sabor artificial, dura denuncia a alpina, hacen un llamado a no darle más esta bebida a los niños de Colombia 🇨🇴 
+Este producto contiene 15 ingredientes de los cuales 9 corresponden a aditivos. Algunos aditivos usados en producción industrial de alimentos podrían afectar la salud.
+Según los criterios de la Organización Panamericana de la Salud (OPS) este producto contiene exceso de azúcares, exceso de grasas saturadas y contiene edulcorantes. 
+El consumo de productos que contienen exceso de estos nutrientes, se relaciona con mayor riesgo de sufrir obesidad y enfermedades crónicas como diabetes, hipertensión, enfermedades cardiovasculares, entre otras.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2026-02-15T14:52:30.000Z</t>
+        </is>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>46068.61979166666</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>46068</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>14:52:30</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=1433893528104411', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzE0MzM4OTM1MjgxMDQ0MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8xNDMzODkzNTI4MTA0NDEx', 'date': '2026-02-15T14:52:30.000Z', 'text': 'Yogo Yogo no es yogur, es lactosuero con azúcar y sabor artificial, dura de</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No es yogur es lactosuero 😂😂😂😂</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2026-02-15T12:16:56.000Z</t>
+        </is>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>46068.51175925926</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>46068</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>12:16:56</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=1227554016169004', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzEyMjc1NTQwMTYxNjkwMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8xMjI3NTU0MDE2MTY5MDA0', 'date': '2026-02-15T12:16:56.000Z', 'text': 'No es yogur es lactosuero 😂😂😂😂', 'profilePicture': 'https://scontent-lga3-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>42</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Xc.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2026-02-14T09:38:47.000Z</t>
+        </is>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>46067.40193287037</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>46067</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>09:38:47</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=1333673648782837', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzEzMzM2NzM2NDg3ODI4Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8xMzMzNjczNjQ4NzgyODM3', 'date': '2026-02-14T09:38:47.000Z', 'text': 'Xc.', 'attachments': [{'__typename': 'GenericAttachmentMedia', 'sticker_ima</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>42</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Mi hijo compro un yogo yogo de estos y venía sin el Mochi 🥲</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2026-02-14T02:26:19.000Z</t>
+        </is>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>46067.1016087963</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>46067</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>02:26:19</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=4240383426221591', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzQyNDAzODM0MjYyMjE1OTE=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV80MjQwMzgzNDI2MjIxNTkx', 'date': '2026-02-14T02:26:19.000Z', 'text': 'Mi hijo compro un yogo yogo de estos y venía sin el Mochi 🥲', 'profilePictu</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>42</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Parece unos muñecos</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2026-02-14T01:52:45.000Z</t>
+        </is>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>46067.07829861111</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>46067</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>01:52:45</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=1114826137382557', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzExMTQ4MjYxMzczODI1NTc=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8xMTE0ODI2MTM3MzgyNTU3', 'date': '2026-02-14T01:52:45.000Z', 'text': 'Parece unos muñecos', 'attachments': [{'__typename': 'Photo', 'blurred_imag</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Traigan los ogros y caballeros otra vez mejor</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2026-02-13T21:46:38.000Z</t>
+        </is>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>46066.90738425926</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>21:46:38</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=2342294716274309', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzIzNDIyOTQ3MTYyNzQzMDk=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8yMzQyMjk0NzE2Mjc0MzA5', 'date': '2026-02-13T21:46:38.000Z', 'text': 'Traigan los ogros y caballeros otra vez mejor', 'profilePicture': 'https://</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>42</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>La verdad me gusta los mucho los Mochis de esta colección</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2026-02-13T20:54:09.000Z</t>
+        </is>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>46066.8709375</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>20:54:09</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=4329806267260318', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzQzMjk4MDYyNjcyNjAzMTg=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV80MzI5ODA2MjY3MjYwMzE4', 'date': '2026-02-13T20:54:09.000Z', 'text': 'La verdad me gusta los mucho los Mochis de esta colección', 'profileUrl': '</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>42</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Que industria se atrevería a traer de nuevo los fushiball quisiera volve a recordar mi infancia  o los pega pega</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2026-02-13T17:31:35.000Z</t>
+        </is>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>46066.7302662037</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>17:31:35</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=1649658386478441', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzE2NDk2NTgzODY0Nzg0NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8xNjQ5NjU4Mzg2NDc4NDQx', 'date': '2026-02-13T17:31:35.000Z', 'text': 'Que industria se atrevería a traer de nuevo los fushiball quisiera volve a </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>42</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>P0xx0</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2026-02-13T17:28:56.000Z</t>
+        </is>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>46066.72842592592</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>17:28:56</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=1227044272731858', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzEyMjcwNDQyNzI3MzE4NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8xMjI3MDQ0MjcyNzMxODU4', 'date': '2026-02-13T17:28:56.000Z', 'text': 'P0xx0', 'profileUrl': 'https://www.facebook.com/people/James-Pe%C3%B1a/pfbi</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>42</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Por que no vuelven con este tipo de colecciones jeje?</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2026-02-13T12:40:02.000Z</t>
+        </is>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>46066.52780092593</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>12:40:02</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=853125021043088', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5Xzg1MzEyNTAyMTA0MzA4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV84NTMxMjUwMjEwNDMwODg=', 'date': '2026-02-13T12:40:02.000Z', 'text': 'Por que no vuelven con este tipo de colecciones jeje?', 'attachments': [{'__</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>42</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Pongan una cosa más llamativa esos cosos a mí hija le salen todos desfigurados</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2026-02-13T04:42:03.000Z</t>
+        </is>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>46066.19586805555</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>04:42:03</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=1243990421209822', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzEyNDM5OTA0MjEyMDk4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8xMjQzOTkwNDIxMjA5ODIy', 'date': '2026-02-13T04:42:03.000Z', 'text': 'Pongan una cosa más llamativa esos cosos a mí hija le salen todos desfigura</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>42</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Si recuerdo cuando niño en la parte de abajo venía un juguete siempre variaban que recuerdos</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2026-02-12T23:27:13.000Z</t>
+        </is>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>46065.97723379629</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>23:27:13</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=1813265156744672', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzE4MTMyNjUxNTY3NDQ2NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8xODEzMjY1MTU2NzQ0Njcy', 'date': '2026-02-12T23:27:13.000Z', 'text': 'Si recuerdo cuando niño en la parte de abajo venía un juguete siempre varia</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>42</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Ya saquen colección de otra cosa, esos Mochis no tiene gracia ... tiempo atrás le metían mejor producción a sus figuras ... pongan algo nuevo y mas llamativo</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2026-02-12T20:21:32.000Z</t>
+        </is>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>46065.84828703704</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>20:21:32</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=916938257576539', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzkxNjkzODI1NzU3NjUzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV85MTY5MzgyNTc1NzY1Mzk=', 'date': '2026-02-12T20:21:32.000Z', 'text': 'Ya saquen colección de otra cosa, esos Mochis no tiene gracia … tiempo atrás</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>42</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Alpinaa. De vuelvan los Yogo Yogo premio del 2015 si no estoy mal de una colección que habia salido de unos tiburones con armas y cocodrilos que venían con armas</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2026-02-12T19:47:59.000Z</t>
+        </is>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>46065.82498842593</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>19:47:59</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=1426004635986342', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzE0MjYwMDQ2MzU5ODYzNDI=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8xNDI2MDA0NjM1OTg2MzQy', 'date': '2026-02-12T19:47:59.000Z', 'text': 'Alpinaa. De vuelvan los Yogo Yogo premio del 2015 si no estoy mal de una co</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>42</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>No más cambio en los Oxxo . En cartagena no hay.  Vuelvan a cambios en envía. Alpina</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2026-02-12T19:41:49.000Z</t>
+        </is>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>46065.82070601852</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>19:41:49</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=1454020923045274', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzE0NTQwMjA5MjMwNDUyNzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8xNDU0MDIwOTIzMDQ1Mjc0', 'date': '2026-02-12T19:41:49.000Z', 'text': 'No más cambio en los Oxxo . En cartagena no hay.  Vuelvan a cambios en enví</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>42</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Devuelvan los ninjas</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:01:44.000Z</t>
+        </is>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>46065.7512037037</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>18:01:44</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=719447867772985', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzcxOTQ0Nzg2Nzc3Mjk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV83MTk0NDc4Njc3NzI5ODU=', 'date': '2026-02-12T18:01:44.000Z', 'text': 'Devuelvan los ninjas', 'profileUrl': 'https://www.facebook.com/vengador117',</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>42</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Están Bonitos está version de Mochis, grandes no como los feos de minismochis.
+Alpina se que quieren vender. Pero si tienen 40 motivos porque de un lote hay tantos repetidos. 
+Su distribución es mala. Como quieren que obtengan la colección los niños, los coleccionistas. Si salen más repetidos que los motivos completos. Se las dejo ahy. 
+Y saquen la guía de cuales son los 40 aqua Mochis
+ Para saber por lo menos cuales son. 
+Gracias. 👍🏻</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2026-02-12T17:41:13.000Z</t>
+        </is>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>46065.73695601852</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>17:41:13</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=1258505952845010', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzEyNTg1MDU5NTI4NDUwMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8xMjU4NTA1OTUyODQ1MDEw', 'date': '2026-02-12T17:41:13.000Z', 'text': 'Están Bonitos está version de Mochis, grandes no como los feos de minismoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>No me olvido de las gomitas de animales que salían en 1998</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2026-02-12T16:37:27.000Z</t>
+        </is>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>46065.69267361111</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>16:37:27</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=1759804775406532', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzE3NTk4MDQ3NzU0MDY1MzI=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8xNzU5ODA0Nzc1NDA2NTMy', 'date': '2026-02-12T16:37:27.000Z', 'text': 'No me olvido de las gomitas de animales que salían en 1998', 'profileUrl': </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Porque transparentes estan bonitos pero hubieran quedado mejor con colores</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2026-02-11T22:24:50.000Z</t>
+        </is>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>46064.93391203704</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>22:24:50</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=905941701848449', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzkwNTk0MTcwMTg0ODQ0OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV85MDU5NDE3MDE4NDg0NDk=', 'date': '2026-02-11T22:24:50.000Z', 'text': 'Porque transparentes estan bonitos pero hubieran quedado mejor con colores',</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Eso se estanco y empieza a bajar mientras ABELARDO sube sube y sube</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2026-02-11T19:57:45.000Z</t>
+        </is>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>46064.83177083333</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>19:57:45</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1345600114278891/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VhyEVvb3N1NLqeptKebdknRLBGEegyMWC98DWSiX3kNcbTTuzTfAib5iRuUoxVHrl?comment_id=1626539841858396', 'id': 'Y29tbWVudDoxMzQ1NjAwNzY3NjEyMTU5XzE2MjY1Mzk4NDE4NTgzOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTM0NTYwMDc2NzYxMjE1OV8xNjI2NTM5ODQxODU4Mzk2', 'date': '2026-02-11T19:57:45.000Z', 'text': 'Eso se estanco y empieza a bajar mientras ABELARDO sube sube y sube', 'prof</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>42</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>43</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345668724272030/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345668724272030/</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>44</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3DFAP2f/</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3DFAP2f/</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>45</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3g2gFfw/</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3g2gFfw/</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>46</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3eyAIz0/</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3eyAIz0/</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>47</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3pdAK6i/</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3pdAK6i/</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>48</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ5d1ALPT/</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ5d1ALPT/</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>49</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbI8DNANZb/</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbI8DNANZb/</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>50</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbIxHEAPZB/</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbIxHEAPZB/</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>51</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbJHe2AO5a/</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbJHe2AO5a/</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>52</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbI8uCgB2n/</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbI8uCgB2n/</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>53</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbJHyugNkG/</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbJHyugNkG/</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>54</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUivrpRgMcb/</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUivrpRgMcb/</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>55</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUi6YciAMYK/</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUi6YciAMYK/</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>post_number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>platform</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>post_url</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Total_Comentarios</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Likes</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Primera_Extraccion</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ultima_Extraccion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481298584281/</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>46047.50809027778</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>46047.50809027778</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481235250954/</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302478275251250/</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302478405251237/</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481211917623/</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481328584278/</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302478291917915/</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302478391917905/</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481255250952/</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481341917610/</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302478318584579/</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302478268584584/</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481325250945/</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>46044.08003472222</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>46047.98043981481</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481208584290/</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1304033688429042/</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>46051.07434027778</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>46051.07434027778</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7w2fgB6D/</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7wPwgB0F/</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7kFPAC5g/</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7ljhgGtu/</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7wFbgIVP/</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7xkRgKdC/</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7mDZgP4h/</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7mbuAAcw/</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7xFfgAnc/</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7xLQgAc6/</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7mV4gIn9/</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7kViADcy/</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7wzRgFXz/</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7v7QAO57/</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DT0eGykgOCW/</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341152268057009/</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214207210990/</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214210544323/</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214310544313/</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214230544321/</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214317210979/</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316945463804531/</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316944213804656/</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316946010471143/</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316945687137842/</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316945740471170/</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345600114278891/</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>24</v>
+      </c>
+      <c r="E43" t="n">
+        <v>42</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>46064.83177083333</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>46069.15789351852</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345668724272030/</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3DFAP2f/</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3g2gFfw/</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3eyAIz0/</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="b">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1345668724272030/</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1345668724272030/</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>https://www.instagram.com/p/DUZJ3pdAK6i/</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="b">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2556,40 +5668,21 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DUZJ3DFAP2f/</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUZJ3DFAP2f/</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>https://www.instagram.com/p/DUZJ5d1ALPT/</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="b">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2598,40 +5691,21 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DUZJ3g2gFfw/</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUZJ3g2gFfw/</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>https://www.instagram.com/p/DUbI8DNANZb/</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="b">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2640,40 +5714,21 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DUZJ3eyAIz0/</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUZJ3eyAIz0/</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>https://www.instagram.com/p/DUbIxHEAPZB/</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="b">
-        <v>0</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2682,40 +5737,21 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DUZJ3pdAK6i/</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUZJ3pdAK6i/</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>https://www.instagram.com/p/DUbJHe2AO5a/</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="b">
-        <v>0</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2724,40 +5760,21 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DUZJ5d1ALPT/</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUZJ5d1ALPT/</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>https://www.instagram.com/p/DUbI8uCgB2n/</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="b">
-        <v>0</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2766,40 +5783,21 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DUbI8DNANZb/</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUbI8DNANZb/</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>https://www.instagram.com/p/DUbJHyugNkG/</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="b">
-        <v>0</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2808,40 +5806,21 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DUbIxHEAPZB/</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUbIxHEAPZB/</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>https://www.instagram.com/p/DUivrpRgMcb/</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="b">
-        <v>0</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2850,204 +5829,824 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DUbJHe2AO5a/</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUbJHe2AO5a/</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>https://www.instagram.com/p/DUi6YciAMYK/</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="b">
-        <v>0</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>52</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>platform</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Total_Posts</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total_Comentarios</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Promedio_Likes</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Likes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481298584281/</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481235250954/</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302478275251250/</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302478405251237/</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481211917623/</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481328584278/</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302478291917915/</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302478391917905/</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481255250952/</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481341917610/</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302478318584579/</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302478268584584/</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481325250945/</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1302481208584290/</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1304033688429042/</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341152268057009/</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214207210990/</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214210544323/</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214310544313/</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214230544321/</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316214317210979/</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316945463804531/</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316944213804656/</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316946010471143/</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316945687137842/</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1316945740471170/</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1345668724272030/</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7w2fgB6D/</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7wPwgB0F/</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7kFPAC5g/</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7ljhgGtu/</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7wFbgIVP/</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7xkRgKdC/</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7mDZgP4h/</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7mbuAAcw/</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7xFfgAnc/</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7xLQgAc6/</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7mV4gIn9/</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7kViADcy/</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7wzRgFXz/</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTv7v7QAO57/</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DT0eGykgOCW/</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3DFAP2f/</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3g2gFfw/</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3eyAIz0/</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ3pdAK6i/</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUZJ5d1ALPT/</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbI8DNANZb/</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbIxHEAPZB/</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUbJHe2AO5a/</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/DUbI8uCgB2n/</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUbI8uCgB2n/</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="b">
-        <v>0</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>53</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/DUbJHyugNkG/</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUbJHyugNkG/</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="b">
-        <v>0</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUivrpRgMcb/</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUi6YciAMYK/</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>total_attempts</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>successful</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>no_comments</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>invalid_comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>54</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUivrpRgMcb/</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUivrpRgMcb/</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="b">
-        <v>0</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>55</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUi6YciAMYK/</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUi6YciAMYK/</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="b">
-        <v>0</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
